--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\OneDrive\Área de Trabalho\AEAS\Dashboard AEAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0429C608-8724-4CEA-93CA-417C997E8B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9067294E-F83C-48A2-8FC0-7FD3680008D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="495" yWindow="4470" windowWidth="8400" windowHeight="9870" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>1000</v>
+        <v>9780.25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>400000</v>
+        <v>212991.02</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9067294E-F83C-48A2-8FC0-7FD3680008D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98491649-3CFF-437A-AF8D-93DEA336DFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="4470" windowWidth="8400" windowHeight="9870" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>9780.25</v>
+        <v>18510.39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>212991.02</v>
+        <v>200974.36</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98491649-3CFF-437A-AF8D-93DEA336DFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE5885C-8FDB-433B-A444-3A2FF3E08F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>18510.39</v>
+        <v>-7753.38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>200974.36</v>
+        <v>200997.46</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE5885C-8FDB-433B-A444-3A2FF3E08F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC96C34B-9706-4C3D-8578-0E4D91F9740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="4110" yWindow="3840" windowWidth="8370" windowHeight="9855" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>-7753.38</v>
+        <v>13738.04</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>200997.46</v>
+        <v>117093.15</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC96C34B-9706-4C3D-8578-0E4D91F9740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E05C184-15DE-4DE5-8FC7-706F7B580BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="3840" windowWidth="8370" windowHeight="9855" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="18855" yWindow="2205" windowWidth="8370" windowHeight="9855" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>13738.04</v>
+        <v>19206.48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>117093.15</v>
+        <v>117108.3</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E05C184-15DE-4DE5-8FC7-706F7B580BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5CB1D8-5B7C-4956-B66B-61CFB6A30728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18855" yWindow="2205" windowWidth="8370" windowHeight="9855" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="17910" yWindow="3090" windowWidth="8370" windowHeight="9855" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>19206.48</v>
+        <v>47698.559999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>117108.3</v>
+        <v>210573.35</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5CB1D8-5B7C-4956-B66B-61CFB6A30728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC86A382-7D03-4B7C-8C7E-B2D1ECB71881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17910" yWindow="3090" windowWidth="8370" windowHeight="9855" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="3330" yWindow="2850" windowWidth="8400" windowHeight="9870" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>47698.559999999998</v>
+        <v>92407.41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>210573.35</v>
+        <v>236957.58</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC86A382-7D03-4B7C-8C7E-B2D1ECB71881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73FF6CC-6CBB-4065-ADA9-0EF191500A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="2850" windowWidth="8400" windowHeight="9870" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>92407.41</v>
+        <v>524150.46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>236957.58</v>
+        <v>765162.91</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73FF6CC-6CBB-4065-ADA9-0EF191500A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3B3FF1-24A5-4B1F-968E-76944C7673D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="1005" yWindow="2145" windowWidth="8430" windowHeight="9885" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>524150.46</v>
+        <v>29223.63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>765162.91</v>
+        <v>237594.3</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3B3FF1-24A5-4B1F-968E-76944C7673D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D231B0-4269-4DB3-AB2F-62D1A46EF24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="2145" windowWidth="8430" windowHeight="9885" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="1800" yWindow="2805" windowWidth="8430" windowHeight="9885" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>29223.63</v>
+        <v>33134.03</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>237594.3</v>
+        <v>246770.79</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D231B0-4269-4DB3-AB2F-62D1A46EF24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC52FA3-F6B7-4DAD-B8FD-23A196B2D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2805" windowWidth="8430" windowHeight="9885" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="1590" yWindow="2250" windowWidth="8430" windowHeight="9885" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>33134.03</v>
+        <v>30847.79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>246770.79</v>
+        <v>256843.93</v>
       </c>
     </row>
   </sheetData>
